--- a/Normal Pizza for Normal People/Assets/Levels.xlsx
+++ b/Normal Pizza for Normal People/Assets/Levels.xlsx
@@ -59,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -68,11 +68,16 @@
     <font>
       <b/>
     </font>
-    <font/>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -88,21 +93,24 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -460,39 +468,39 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1.0</v>
       </c>
       <c r="B2" s="4">
@@ -501,13 +509,13 @@
       <c r="C2" s="4">
         <v>90.0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>15.0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>1.0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>4.0</v>
       </c>
       <c r="G2" s="4">
@@ -548,7 +556,7 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2.0</v>
       </c>
       <c r="B3" s="4">
@@ -557,13 +565,13 @@
       <c r="C3" s="4">
         <v>90.0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>15.0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>1.0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>6.0</v>
       </c>
       <c r="G3" s="4">
@@ -604,20 +612,20 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3.0</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="4">
         <v>100.0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>20.0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>1.0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>6.0</v>
       </c>
       <c r="G4" s="4">
@@ -658,20 +666,20 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4.0</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="4">
         <v>100.0</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>20.0</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>1.0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>8.0</v>
       </c>
       <c r="G5" s="4">
@@ -712,7 +720,7 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5.0</v>
       </c>
       <c r="B6" s="5"/>
@@ -754,7 +762,7 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>6.0</v>
       </c>
       <c r="B7" s="5"/>
@@ -796,7 +804,7 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7.0</v>
       </c>
       <c r="B8" s="5"/>
@@ -838,7 +846,7 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8.0</v>
       </c>
       <c r="B9" s="5"/>
@@ -880,7 +888,7 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9.0</v>
       </c>
       <c r="B10" s="5"/>
@@ -922,10 +930,12 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10.0</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="4">
+        <v>69.0</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>

--- a/Normal Pizza for Normal People/Assets/Levels.xlsx
+++ b/Normal Pizza for Normal People/Assets/Levels.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>DayNum</t>
   </si>
@@ -25,16 +25,19 @@
     <t>TotalCustomers</t>
   </si>
   <si>
+    <t>NumCustomerLines</t>
+  </si>
+  <si>
+    <t>NumOfOvens</t>
+  </si>
+  <si>
     <t>MinTopping</t>
   </si>
   <si>
     <t>MaxTopping</t>
   </si>
   <si>
-    <t>NumOfOvens</t>
-  </si>
-  <si>
-    <t>NumCustomerLines</t>
+    <t>Topping Range</t>
   </si>
   <si>
     <t>Pineapple</t>
@@ -181,8 +184,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:Z36" displayName="Table_1" id="1">
-  <tableColumns count="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:AA36" displayName="Table_1" id="1">
+  <tableColumns count="27">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
     <tableColumn name="Column3" id="3"/>
@@ -209,6 +212,7 @@
     <tableColumn name="Column24" id="24"/>
     <tableColumn name="Column25" id="25"/>
     <tableColumn name="Column26" id="26"/>
+    <tableColumn name="Column27" id="27"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
   <extLst>
@@ -432,16 +436,17 @@
     <col customWidth="1" min="2" max="2" width="12.0"/>
     <col customWidth="1" min="3" max="3" width="11.43"/>
     <col customWidth="1" min="4" max="4" width="16.0"/>
-    <col customWidth="1" min="5" max="5" width="13.0"/>
-    <col customWidth="1" min="6" max="6" width="12.86"/>
-    <col customWidth="1" min="7" max="7" width="13.71"/>
-    <col customWidth="1" min="8" max="8" width="20.43"/>
-    <col customWidth="1" min="9" max="9" width="11.57"/>
-    <col customWidth="1" min="10" max="10" width="12.86"/>
-    <col customWidth="1" min="11" max="11" width="8.57"/>
-    <col customWidth="1" min="12" max="12" width="10.0"/>
-    <col customWidth="1" min="13" max="13" width="9.0"/>
-    <col customWidth="1" min="14" max="14" width="13.43"/>
+    <col customWidth="1" min="5" max="5" width="20.0"/>
+    <col customWidth="1" min="6" max="6" width="13.71"/>
+    <col customWidth="1" min="7" max="7" width="13.0"/>
+    <col customWidth="1" min="8" max="8" width="12.86"/>
+    <col customWidth="1" min="9" max="9" width="15.57"/>
+    <col customWidth="1" min="10" max="10" width="11.57"/>
+    <col customWidth="1" min="11" max="11" width="12.86"/>
+    <col customWidth="1" min="12" max="12" width="8.57"/>
+    <col customWidth="1" min="13" max="13" width="10.0"/>
+    <col customWidth="1" min="14" max="14" width="9.0"/>
+    <col customWidth="1" min="15" max="15" width="13.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -457,10 +462,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -469,13 +474,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -487,7 +492,9 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3"/>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -499,6 +506,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="4">
@@ -517,22 +525,22 @@
         <v>1.0</v>
       </c>
       <c r="F2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="4">
         <v>4.0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="I2" s="4">
         <v>0.0</v>
       </c>
-      <c r="H2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I2" s="4" t="b">
-        <v>1</v>
-      </c>
       <c r="J2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="5" t="b">
-        <v>0</v>
+      <c r="K2" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="L2" s="5" t="b">
         <v>0</v>
@@ -543,12 +551,15 @@
       <c r="N2" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="U2" s="5"/>
+      <c r="O2" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="4">
@@ -563,29 +574,29 @@
       <c r="D3" s="4">
         <v>15.0</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="6">
         <v>1.0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="H3" s="4">
         <v>6.0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="I3" s="4">
         <v>0.0</v>
       </c>
-      <c r="H3" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="I3" s="4" t="b">
-        <v>1</v>
-      </c>
       <c r="J3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="K3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="5" t="b">
-        <v>0</v>
+      <c r="L3" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="M3" s="5" t="b">
         <v>0</v>
@@ -593,12 +604,15 @@
       <c r="N3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="U3" s="5"/>
+      <c r="O3" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="4">
@@ -613,21 +627,21 @@
       <c r="D4" s="6">
         <v>20.0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F4" s="4">
         <v>1.0</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="6">
         <v>6.0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="I4" s="4">
         <v>1.0</v>
       </c>
-      <c r="H4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="I4" s="4" t="b">
-        <v>1</v>
-      </c>
       <c r="J4" s="4" t="b">
         <v>1</v>
       </c>
@@ -637,18 +651,21 @@
       <c r="L4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M4" s="5" t="b">
-        <v>0</v>
+      <c r="M4" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="N4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="U4" s="5"/>
+      <c r="O4" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="4">
@@ -663,20 +680,20 @@
       <c r="D5" s="6">
         <v>20.0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G5" s="6">
         <v>1.0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="H5" s="6">
         <v>8.0</v>
       </c>
-      <c r="G5" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="I5" s="4" t="b">
-        <v>1</v>
+      <c r="I5" s="4">
+        <v>0.0</v>
       </c>
       <c r="J5" s="4" t="b">
         <v>1</v>
@@ -690,15 +707,18 @@
       <c r="M5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5"/>
+      <c r="N5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
@@ -713,20 +733,20 @@
       <c r="D6" s="6">
         <v>25.0</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G6" s="6">
         <v>1.0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="H6" s="6">
         <v>10.0</v>
       </c>
-      <c r="G6" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="I6" s="4" t="b">
-        <v>1</v>
+      <c r="I6" s="4">
+        <v>0.0</v>
       </c>
       <c r="J6" s="4" t="b">
         <v>1</v>
@@ -743,12 +763,15 @@
       <c r="N6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="U6" s="5"/>
+      <c r="O6" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="4">
@@ -761,10 +784,8 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="b">
+      <c r="I7" s="5"/>
+      <c r="J7" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K7" s="5" t="b">
@@ -779,12 +800,15 @@
       <c r="N7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="U7" s="5"/>
+      <c r="O7" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
@@ -797,10 +821,8 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5" t="b">
+      <c r="I8" s="5"/>
+      <c r="J8" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K8" s="5" t="b">
@@ -815,7 +837,9 @@
       <c r="N8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O8" s="5"/>
+      <c r="O8" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -827,6 +851,7 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
@@ -839,10 +864,8 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5" t="b">
+      <c r="I9" s="5"/>
+      <c r="J9" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K9" s="5" t="b">
@@ -857,7 +880,9 @@
       <c r="N9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O9" s="5"/>
+      <c r="O9" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -869,6 +894,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="4">
@@ -881,10 +907,8 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="b">
+      <c r="I10" s="5"/>
+      <c r="J10" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K10" s="5" t="b">
@@ -899,7 +923,9 @@
       <c r="N10" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -911,6 +937,7 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="4">
@@ -923,10 +950,8 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5" t="b">
+      <c r="I11" s="5"/>
+      <c r="J11" s="4" t="b">
         <v>0</v>
       </c>
       <c r="K11" s="5" t="b">
@@ -941,7 +966,9 @@
       <c r="N11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="O11" s="5"/>
+      <c r="O11" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -953,6 +980,7 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="5"/>
@@ -963,13 +991,13 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="5"/>
+      <c r="O12" s="7"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -981,6 +1009,7 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="5"/>
@@ -991,13 +1020,13 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="5"/>
+      <c r="O13" s="7"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -1009,6 +1038,7 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="5"/>
@@ -1019,13 +1049,13 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="5"/>
+      <c r="O14" s="7"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -1037,6 +1067,7 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="5"/>
@@ -1047,13 +1078,13 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="5"/>
+      <c r="O15" s="7"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -1065,6 +1096,7 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="5"/>
@@ -1075,13 +1107,13 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="5"/>
+      <c r="O16" s="7"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -1093,6 +1125,7 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="5"/>
@@ -1103,13 +1136,13 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="7"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="5"/>
+      <c r="O17" s="7"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -1121,6 +1154,7 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="5"/>
@@ -1131,13 +1165,13 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="7"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="5"/>
+      <c r="O18" s="7"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
@@ -1149,6 +1183,7 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="5"/>
@@ -1159,13 +1194,13 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="7"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="5"/>
+      <c r="O19" s="7"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
@@ -1177,6 +1212,7 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="5"/>
@@ -1187,13 +1223,13 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="5"/>
+      <c r="O20" s="7"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -1205,6 +1241,7 @@
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="5"/>
@@ -1215,13 +1252,13 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="7"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="5"/>
+      <c r="O21" s="7"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
@@ -1233,6 +1270,7 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="5"/>
@@ -1243,13 +1281,13 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="5"/>
+      <c r="O22" s="7"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -1261,6 +1299,7 @@
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="5"/>
@@ -1271,13 +1310,13 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="5"/>
+      <c r="O23" s="7"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -1289,6 +1328,7 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="5"/>
@@ -1299,13 +1339,13 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="5"/>
+      <c r="O24" s="7"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -1317,6 +1357,7 @@
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="5"/>
@@ -1327,13 +1368,13 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="5"/>
+      <c r="O25" s="7"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -1345,6 +1386,7 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="5"/>
@@ -1355,13 +1397,13 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="7"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="5"/>
+      <c r="O26" s="7"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -1373,6 +1415,7 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="5"/>
@@ -1383,13 +1426,13 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="7"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="5"/>
+      <c r="O27" s="7"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -1401,6 +1444,7 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="5"/>
@@ -1411,13 +1455,13 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="7"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="5"/>
+      <c r="O28" s="7"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
@@ -1429,6 +1473,7 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="5"/>
@@ -1439,13 +1484,13 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="7"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="5"/>
+      <c r="O29" s="7"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -1457,6 +1502,7 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="5"/>
@@ -1467,13 +1513,13 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="7"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="5"/>
+      <c r="O30" s="7"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
@@ -1485,6 +1531,7 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="5"/>
@@ -1495,13 +1542,13 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="5"/>
+      <c r="O31" s="7"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
@@ -1513,6 +1560,7 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="5"/>
@@ -1523,13 +1571,13 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="7"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="5"/>
+      <c r="O32" s="7"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
@@ -1541,6 +1589,7 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="5"/>
@@ -1551,13 +1600,13 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="7"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="5"/>
+      <c r="O33" s="7"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
@@ -1569,6 +1618,7 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="5"/>
@@ -1579,13 +1629,13 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="7"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="5"/>
+      <c r="O34" s="7"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
@@ -1597,6 +1647,7 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="5"/>
@@ -1607,13 +1658,13 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="7"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="5"/>
+      <c r="O35" s="7"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
@@ -1625,6 +1676,7 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="5"/>
@@ -1635,13 +1687,13 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="7"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="5"/>
+      <c r="O36" s="7"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
@@ -1653,17 +1705,22 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
     </row>
   </sheetData>
   <dataValidations>
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="B2:C36">
       <formula1>0.0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 2" sqref="G2:G36">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 2. 0 is low, 1 is mid, 2 is high" sqref="I2:I36">
       <formula1>0.0</formula1>
       <formula2>2.0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 3" sqref="H2:H36">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 2" sqref="F2:F36">
+      <formula1>0.0</formula1>
+      <formula2>2.0</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 3" sqref="E2:E36">
       <formula1>0.0</formula1>
       <formula2>3.0</formula2>
     </dataValidation>

--- a/Normal Pizza for Normal People/Assets/Levels.xlsx
+++ b/Normal Pizza for Normal People/Assets/Levels.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Normal-Pizza-for-Normal-People\Normal Pizza for Normal People\Assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6034828A-41D5-4366-B1A5-631B4C3F8B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -61,160 +70,152 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFACC9FE"/>
+          <bgColor rgb="FFACC9FE"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE8F0FE"/>
+          <bgColor rgb="FFE8F0FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF5B95F9"/>
           <bgColor rgb="FF5B95F9"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE8F0FE"/>
-          <bgColor rgb="FFE8F0FE"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFACC9FE"/>
-          <bgColor rgb="FFACC9FE"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="4" pivot="0" name="Sheet1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" type="totalRow"/>
+    <tableStyle name="Sheet1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="totalRow" dxfId="0"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:AA36" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:AA36" headerRowCount="0">
   <tableColumns count="27">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
-    <tableColumn name="Column7" id="7"/>
-    <tableColumn name="Column8" id="8"/>
-    <tableColumn name="Column9" id="9"/>
-    <tableColumn name="Column10" id="10"/>
-    <tableColumn name="Column11" id="11"/>
-    <tableColumn name="Column12" id="12"/>
-    <tableColumn name="Column13" id="13"/>
-    <tableColumn name="Column14" id="14"/>
-    <tableColumn name="Column15" id="15"/>
-    <tableColumn name="Column16" id="16"/>
-    <tableColumn name="Column17" id="17"/>
-    <tableColumn name="Column18" id="18"/>
-    <tableColumn name="Column19" id="19"/>
-    <tableColumn name="Column20" id="20"/>
-    <tableColumn name="Column21" id="21"/>
-    <tableColumn name="Column22" id="22"/>
-    <tableColumn name="Column23" id="23"/>
-    <tableColumn name="Column24" id="24"/>
-    <tableColumn name="Column25" id="25"/>
-    <tableColumn name="Column26" id="26"/>
-    <tableColumn name="Column27" id="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Column17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Column18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column20"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column23"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column24"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Column25"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Column26"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Column27"/>
   </tableColumns>
-  <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
@@ -224,7 +225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -414,42 +415,45 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.57"/>
-    <col customWidth="1" min="2" max="2" width="12.0"/>
-    <col customWidth="1" min="3" max="3" width="11.43"/>
-    <col customWidth="1" min="4" max="4" width="16.0"/>
-    <col customWidth="1" min="5" max="5" width="20.0"/>
-    <col customWidth="1" min="6" max="6" width="13.71"/>
-    <col customWidth="1" min="7" max="7" width="13.0"/>
-    <col customWidth="1" min="8" max="8" width="12.86"/>
-    <col customWidth="1" min="9" max="9" width="15.57"/>
-    <col customWidth="1" min="10" max="10" width="11.57"/>
-    <col customWidth="1" min="11" max="11" width="12.86"/>
-    <col customWidth="1" min="12" max="12" width="8.57"/>
-    <col customWidth="1" min="13" max="13" width="10.0"/>
-    <col customWidth="1" min="14" max="14" width="9.0"/>
-    <col customWidth="1" min="15" max="15" width="13.43"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,33 +512,33 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="C2" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="D2" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="b">
         <v>1</v>
@@ -561,33 +565,33 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="C3" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="D3" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I3" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="b">
         <v>1</v>
@@ -614,33 +618,33 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="C4" s="4">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D4" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="4" t="b">
         <v>1</v>
@@ -667,33 +671,33 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="C5" s="4">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D5" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I5" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4" t="b">
         <v>1</v>
@@ -720,33 +724,33 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="4">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D6" s="6">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4" t="b">
         <v>1</v>
@@ -773,9 +777,9 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -810,9 +814,9 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -853,9 +857,9 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -896,9 +900,9 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -939,9 +943,9 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -982,7 +986,7 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1011,7 +1015,7 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1040,7 +1044,7 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1069,7 +1073,7 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1098,7 +1102,7 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1127,7 +1131,7 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1156,7 +1160,7 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1185,7 +1189,7 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1214,7 +1218,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1243,7 +1247,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1272,7 +1276,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1301,7 +1305,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1330,7 +1334,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1359,7 +1363,7 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1388,7 +1392,7 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1417,7 +1421,7 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1446,7 +1450,7 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1475,7 +1479,7 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1504,7 +1508,7 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1533,7 +1537,7 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1562,7 +1566,7 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1591,7 +1595,7 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1620,7 +1624,7 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1649,7 +1653,7 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1678,7 +1682,7 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1708,26 +1712,26 @@
       <c r="AA36" s="5"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="B2:C36">
-      <formula1>0.0</formula1>
+  <dataValidations count="4">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="B2:C36" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 2. 0 is low, 1 is mid, 2 is high" sqref="I2:I36">
-      <formula1>0.0</formula1>
-      <formula2>2.0</formula2>
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 2. 0 is low, 1 is mid, 2 is high" sqref="I2:I36" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>0</formula1>
+      <formula2>2</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 2" sqref="F2:F36">
-      <formula1>0.0</formula1>
-      <formula2>2.0</formula2>
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 2" sqref="F2:F36" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>0</formula1>
+      <formula2>2</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 3" sqref="E2:E36">
-      <formula1>0.0</formula1>
-      <formula2>3.0</formula2>
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 3" sqref="E2:E36" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>0</formula1>
+      <formula2>3</formula2>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Normal Pizza for Normal People/Assets/Levels.xlsx
+++ b/Normal Pizza for Normal People/Assets/Levels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Normal-Pizza-for-Normal-People\Normal Pizza for Normal People\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6034828A-41D5-4366-B1A5-631B4C3F8B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789821DF-8635-40C2-94FD-E837C8D494FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>DayNum</t>
   </si>
@@ -46,9 +46,6 @@
     <t>MaxTopping</t>
   </si>
   <si>
-    <t>Topping Range</t>
-  </si>
-  <si>
     <t>Pineapple</t>
   </si>
   <si>
@@ -65,6 +62,12 @@
   </si>
   <si>
     <t>Honeycomb</t>
+  </si>
+  <si>
+    <t>CheesePress</t>
+  </si>
+  <si>
+    <t>ToppingRange</t>
   </si>
 </sst>
 </file>
@@ -135,14 +138,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFACC9FE"/>
-          <bgColor rgb="FFACC9FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFE8F0FE"/>
           <bgColor rgb="FFE8F0FE"/>
         </patternFill>
@@ -159,6 +154,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFACC9FE"/>
+          <bgColor rgb="FFACC9FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF5B95F9"/>
           <bgColor rgb="FF5B95F9"/>
         </patternFill>
@@ -168,9 +171,9 @@
   <tableStyles count="1">
     <tableStyle name="Sheet1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="totalRow" dxfId="0"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="totalRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -431,7 +434,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -479,27 +482,29 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -558,6 +563,9 @@
       <c r="O2" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="P2" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
@@ -611,6 +619,9 @@
       <c r="O3" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="P3" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
@@ -664,6 +675,9 @@
       <c r="O4" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="P4" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
@@ -717,6 +731,9 @@
       <c r="O5" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="P5" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
@@ -769,6 +786,9 @@
       </c>
       <c r="O6" s="4" t="b">
         <v>1</v>
+      </c>
+      <c r="P6" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
@@ -807,6 +827,9 @@
       <c r="O7" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="P7" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
@@ -844,7 +867,9 @@
       <c r="O8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="P8" s="5"/>
+      <c r="P8" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
@@ -887,7 +912,9 @@
       <c r="O9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="P9" s="5"/>
+      <c r="P9" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
@@ -930,7 +957,9 @@
       <c r="O10" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="P10" s="5"/>
+      <c r="P10" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
@@ -973,7 +1002,9 @@
       <c r="O11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="P11" s="5"/>
+      <c r="P11" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>

--- a/Normal Pizza for Normal People/Assets/Levels.xlsx
+++ b/Normal Pizza for Normal People/Assets/Levels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Normal-Pizza-for-Normal-People\Normal Pizza for Normal People\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789821DF-8635-40C2-94FD-E837C8D494FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B936E27F-D213-4F80-A0F3-FBE04EAAABAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,10 +431,10 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -443,11 +443,11 @@
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
     <col min="10" max="10" width="11.5546875" customWidth="1"/>
     <col min="11" max="11" width="12.88671875" customWidth="1"/>
     <col min="12" max="12" width="8.5546875" customWidth="1"/>
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C2" s="4">
         <v>90</v>
@@ -578,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C3" s="4">
         <v>90</v>
@@ -634,7 +634,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="C4" s="4">
         <v>100</v>
@@ -690,7 +690,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="C5" s="4">
         <v>100</v>
@@ -705,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="6">
         <v>8</v>
@@ -746,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="C6" s="4">
         <v>100</v>
@@ -761,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="6">
         <v>10</v>
@@ -798,9 +798,7 @@
       <c r="AA6" s="5"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -809,27 +807,13 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
@@ -838,9 +822,7 @@
       <c r="AA7" s="5"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -849,27 +831,13 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
@@ -883,9 +851,7 @@
       <c r="AA8" s="5"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -894,27 +860,13 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
@@ -928,9 +880,7 @@
       <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -939,27 +889,13 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
@@ -973,9 +909,7 @@
       <c r="AA10" s="5"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -984,27 +918,13 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5" t="b">
-        <v>0</v>
-      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>

--- a/Normal Pizza for Normal People/Assets/Levels.xlsx
+++ b/Normal Pizza for Normal People/Assets/Levels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Normal-Pizza-for-Normal-People\Normal Pizza for Normal People\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B936E27F-D213-4F80-A0F3-FBE04EAAABAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FA401E-311E-4B54-9F80-2E0D05B83D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>DayNum</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>ToppingRange</t>
+  </si>
+  <si>
+    <t>Cheeses</t>
   </si>
 </sst>
 </file>
@@ -431,10 +434,10 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -505,7 +508,9 @@
       <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
@@ -566,6 +571,9 @@
       <c r="P2" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
@@ -622,6 +630,9 @@
       <c r="P3" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
@@ -678,6 +689,9 @@
       <c r="P4" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
@@ -734,6 +748,9 @@
       <c r="P5" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
@@ -764,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -788,6 +805,9 @@
         <v>1</v>
       </c>
       <c r="P6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>0</v>
       </c>
       <c r="V6" s="5"/>
@@ -1460,23 +1480,57 @@
       <c r="AA29" s="5"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+      <c r="A30" s="5">
+        <v>999</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5">
+        <v>200</v>
+      </c>
+      <c r="D30" s="5">
+        <v>50</v>
+      </c>
+      <c r="E30" s="5">
+        <v>3</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
+        <v>9</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+      <c r="J30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>3</v>
+      </c>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
@@ -1604,35 +1658,6 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-    </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
@@ -1663,21 +1688,29 @@
       <c r="AA36" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="B2:C36" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="6">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="B36:C36 B2:C34" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 2. 0 is low, 1 is mid, 2 is high" sqref="I2:I36" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 2. 0 is low, 1 is mid, 2 is high" sqref="I36 I2:I34" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>2</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 2" sqref="F2:F36" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 2" sqref="F36 F2:F34" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
       <formula2>2</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 3" sqref="E2:E36" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 3" sqref="E36 E2:E34" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>0</formula1>
       <formula2>3</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q36:Q1048576 Q2:Q34" xr:uid="{2491BBF9-BB54-4852-B95D-25CCEDA9E525}">
+      <formula1>0</formula1>
+      <formula2>3</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576 G2:G1048576" xr:uid="{1BE3871E-2B66-44DC-86F7-85D9D49E4F59}">
+      <formula1>1</formula1>
+      <formula2>9</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Normal Pizza for Normal People/Assets/Levels.xlsx
+++ b/Normal Pizza for Normal People/Assets/Levels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Normal-Pizza-for-Normal-People\Normal Pizza for Normal People\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FA401E-311E-4B54-9F80-2E0D05B83D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E263102E-4FB0-4816-9D43-F00E99EC4FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>DayNum</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>Cheeses</t>
+  </si>
+  <si>
+    <t>StarTwoGoal</t>
+  </si>
+  <si>
+    <t>StarThreeGoal</t>
   </si>
 </sst>
 </file>
@@ -137,7 +143,41 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -173,10 +213,10 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Sheet1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="totalRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -191,10 +231,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:AA36" headerRowCount="0">
-  <tableColumns count="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:AC36" headerRowCount="0">
+  <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="29" xr3:uid="{485DD1A6-83B6-4081-A05E-131AAFAFAD60}" name="Column28" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{F0BBED20-128D-45CF-9D0D-17BF376B4E29}" name="Column29" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
@@ -431,35 +473,39 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" customWidth="1"/>
+    <col min="18" max="18" width="12.77734375" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,52 +513,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
@@ -521,8 +571,10 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -530,37 +582,37 @@
         <v>300</v>
       </c>
       <c r="C2" s="4">
+        <v>400</v>
+      </c>
+      <c r="D2" s="4">
+        <v>500</v>
+      </c>
+      <c r="E2" s="4">
         <v>90</v>
       </c>
-      <c r="D2" s="4">
+      <c r="F2" s="4">
         <v>15</v>
       </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
       <c r="G2" s="4">
         <v>1</v>
       </c>
       <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
         <v>4</v>
       </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5" t="b">
-        <v>0</v>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="N2" s="5" t="b">
         <v>0</v>
@@ -571,17 +623,23 @@
       <c r="P2" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="Q2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -589,40 +647,40 @@
         <v>400</v>
       </c>
       <c r="C3" s="4">
+        <v>500</v>
+      </c>
+      <c r="D3" s="4">
+        <v>600</v>
+      </c>
+      <c r="E3" s="4">
         <v>90</v>
       </c>
-      <c r="D3" s="4">
+      <c r="F3" s="4">
         <v>15</v>
       </c>
-      <c r="E3" s="4">
+      <c r="G3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
       <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
         <v>6</v>
       </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="b">
-        <v>1</v>
+      <c r="K3" s="4">
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5" t="b">
-        <v>0</v>
+      <c r="M3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="O3" s="5" t="b">
         <v>0</v>
@@ -630,17 +688,23 @@
       <c r="P3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="Q3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -648,30 +712,30 @@
         <v>550</v>
       </c>
       <c r="C4" s="4">
+        <v>650</v>
+      </c>
+      <c r="D4" s="4">
+        <v>750</v>
+      </c>
+      <c r="E4" s="4">
         <v>100</v>
       </c>
-      <c r="D4" s="6">
+      <c r="F4" s="6">
         <v>20</v>
       </c>
-      <c r="E4" s="4">
+      <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
         <v>6</v>
       </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="b">
+      <c r="K4" s="4">
         <v>1</v>
       </c>
       <c r="L4" s="4" t="b">
@@ -680,26 +744,32 @@
       <c r="M4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5" t="b">
-        <v>0</v>
+      <c r="N4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="P4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+      <c r="Q4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -707,31 +777,31 @@
         <v>700</v>
       </c>
       <c r="C5" s="4">
+        <v>800</v>
+      </c>
+      <c r="D5" s="4">
+        <v>900</v>
+      </c>
+      <c r="E5" s="4">
         <v>100</v>
       </c>
-      <c r="D5" s="6">
+      <c r="F5" s="6">
         <v>20</v>
       </c>
-      <c r="E5" s="4">
+      <c r="G5" s="4">
         <v>3</v>
       </c>
-      <c r="F5" s="4">
+      <c r="H5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="I5" s="6">
         <v>2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="J5" s="6">
         <v>8</v>
       </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="b">
-        <v>1</v>
+      <c r="K5" s="4">
+        <v>0</v>
       </c>
       <c r="L5" s="4" t="b">
         <v>1</v>
@@ -742,23 +812,29 @@
       <c r="N5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="O5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="O5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -766,31 +842,31 @@
         <v>900</v>
       </c>
       <c r="C6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1100</v>
+      </c>
+      <c r="E6" s="4">
         <v>100</v>
       </c>
-      <c r="D6" s="6">
+      <c r="F6" s="6">
         <v>25</v>
       </c>
-      <c r="E6" s="4">
+      <c r="G6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="H6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="I6" s="6">
         <v>3</v>
       </c>
-      <c r="H6" s="6">
+      <c r="J6" s="6">
         <v>9</v>
       </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="b">
-        <v>1</v>
+      <c r="K6" s="4">
+        <v>0</v>
       </c>
       <c r="L6" s="4" t="b">
         <v>1</v>
@@ -804,20 +880,26 @@
       <c r="O6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="P6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="P6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -827,21 +909,23 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -851,9 +935,9 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -869,8 +953,10 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -880,9 +966,9 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -898,8 +984,10 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -909,9 +997,9 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -927,20 +1015,22 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -956,8 +1046,10 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -967,14 +1059,14 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
@@ -985,8 +1077,10 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -996,14 +1090,14 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
@@ -1014,8 +1108,10 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1025,14 +1121,14 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
@@ -1043,8 +1139,10 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1054,14 +1152,14 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
@@ -1072,8 +1170,10 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1083,14 +1183,14 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
@@ -1101,8 +1201,10 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1112,14 +1214,14 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -1130,8 +1232,10 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1141,14 +1245,14 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
@@ -1159,8 +1263,10 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1170,14 +1276,14 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
@@ -1188,8 +1294,10 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1199,14 +1307,14 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -1217,8 +1325,10 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1228,14 +1338,14 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
@@ -1246,8 +1356,10 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1257,14 +1369,14 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
@@ -1275,8 +1387,10 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1286,14 +1400,14 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
@@ -1304,8 +1418,10 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1315,14 +1431,14 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
@@ -1333,8 +1449,10 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1344,14 +1462,14 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
@@ -1362,8 +1480,10 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1373,14 +1493,14 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
@@ -1391,8 +1511,10 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1402,14 +1524,14 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
@@ -1420,8 +1542,10 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1431,14 +1555,14 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
@@ -1449,8 +1573,10 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1460,14 +1586,14 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
@@ -1478,8 +1604,10 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>999</v>
       </c>
@@ -1487,30 +1615,30 @@
         <v>1</v>
       </c>
       <c r="C30" s="5">
+        <v>2</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5">
         <v>200</v>
       </c>
-      <c r="D30" s="5">
+      <c r="F30" s="5">
         <v>50</v>
       </c>
-      <c r="E30" s="5">
+      <c r="G30" s="5">
         <v>3</v>
       </c>
-      <c r="F30" s="5">
+      <c r="H30" s="5">
         <v>2</v>
       </c>
-      <c r="G30" s="5">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5">
         <v>9</v>
       </c>
-      <c r="I30" s="5">
-        <v>1</v>
-      </c>
-      <c r="J30" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" s="7" t="b">
+      <c r="K30" s="5">
         <v>1</v>
       </c>
       <c r="L30" s="7" t="b">
@@ -1528,11 +1656,15 @@
       <c r="P30" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="Q30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S30" s="5">
         <v>3</v>
       </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -1541,8 +1673,10 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1552,14 +1686,14 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
@@ -1570,8 +1704,10 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1581,14 +1717,14 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
@@ -1599,8 +1735,10 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1610,14 +1748,14 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
@@ -1628,8 +1766,10 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1639,14 +1779,14 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
@@ -1657,8 +1797,10 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1668,14 +1810,14 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
@@ -1686,29 +1828,31 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="B36:C36 B2:C34" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="B36:E36 B2:E34" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 2. 0 is low, 1 is mid, 2 is high" sqref="I36 I2:I34" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 2. 0 is low, 1 is mid, 2 is high" sqref="K36 K2:K34" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>2</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 2" sqref="F36 F2:F34" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 2" sqref="H36 H2:H34" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
       <formula2>2</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 3" sqref="E36 E2:E34" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0 and 3" sqref="G36 G2:G34" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>0</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q36:Q1048576 Q2:Q34" xr:uid="{2491BBF9-BB54-4852-B95D-25CCEDA9E525}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S36:S1048576 S2:S34" xr:uid="{2491BBF9-BB54-4852-B95D-25CCEDA9E525}">
       <formula1>0</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576 G2:G1048576" xr:uid="{1BE3871E-2B66-44DC-86F7-85D9D49E4F59}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576 I2:I1048576" xr:uid="{1BE3871E-2B66-44DC-86F7-85D9D49E4F59}">
       <formula1>1</formula1>
       <formula2>9</formula2>
     </dataValidation>

--- a/Normal Pizza for Normal People/Assets/Levels.xlsx
+++ b/Normal Pizza for Normal People/Assets/Levels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Normal-Pizza-for-Normal-People\Normal Pizza for Normal People\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E263102E-4FB0-4816-9D43-F00E99EC4FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04637223-CADD-4FA2-922E-902522FFA4B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,10 +476,10 @@
   <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="R3" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
@@ -757,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="R4" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="R5" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
@@ -887,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="R6" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
@@ -1852,7 +1852,7 @@
       <formula1>0</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576 I2:I1048576" xr:uid="{1BE3871E-2B66-44DC-86F7-85D9D49E4F59}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J1048576" xr:uid="{1BE3871E-2B66-44DC-86F7-85D9D49E4F59}">
       <formula1>1</formula1>
       <formula2>9</formula2>
     </dataValidation>

--- a/Normal Pizza for Normal People/Assets/Levels.xlsx
+++ b/Normal Pizza for Normal People/Assets/Levels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Normal-Pizza-for-Normal-People\Normal Pizza for Normal People\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04637223-CADD-4FA2-922E-902522FFA4B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F618B89-639D-4B60-829F-5B2BE5F58B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -594,7 +594,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="4">
         <v>2</v>
@@ -854,7 +854,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="4">
         <v>2</v>
